--- a/csv_test.xlsx
+++ b/csv_test.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/babalia/Desktop/pandas_tutorials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/babalia/Documents/GitHub/pandas_note/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1619A1DA-9142-8B46-A0E7-C1599E36D7A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005805EF-44ED-4C4D-B60F-4B1F43779C9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="1560" windowWidth="28240" windowHeight="17440" xr2:uid="{764810E8-DD61-FD45-A940-559E243150C5}"/>
+    <workbookView xWindow="2660" yWindow="1560" windowWidth="28240" windowHeight="17440" xr2:uid="{764810E8-DD61-FD45-A940-559E243150C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="1">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -398,15 +398,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A71583-7637-6B48-BBCD-6B0BD1F44D3C}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B3" sqref="B3:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,8 +419,14 @@
       <c r="D1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
@@ -433,365 +439,531 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <f>A2+1</f>
         <v>1</v>
       </c>
       <c r="B3">
-        <f>B2+1</f>
-        <v>1</v>
+        <f>B2+2</f>
+        <v>2</v>
       </c>
       <c r="C3">
         <f>C2+1</f>
         <v>1</v>
       </c>
       <c r="D3">
-        <f>D2+1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <f>D2+2</f>
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <f>E2+5</f>
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <f>F2+10</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <f t="shared" ref="A4:D22" si="0">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4">
+        <f t="shared" ref="B4:B22" si="1">B3+2</f>
+        <v>4</v>
+      </c>
+      <c r="C4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
       <c r="D4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <f t="shared" ref="D4:D22" si="2">D3+2</f>
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E22" si="3">E3+5</f>
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F22" si="4">F3+10</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="C8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="C9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
       <c r="D9">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="C10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
       <c r="D10">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="C11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
       <c r="D11">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="C12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
       <c r="D12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="C13">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
       <c r="D13">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C14">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
       <c r="D14">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="C15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
       <c r="D15">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="4"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B16">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="C16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
       <c r="D16">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B17">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="C17">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
       <c r="D17">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B18">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="C18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
       <c r="D18">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="4"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B19">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="C19">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
       <c r="D19">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="4"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B20">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="C20">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
       <c r="D20">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B21">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="C21">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
       <c r="D21">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="4"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B22">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="C22">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
       <c r="D22">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="4"/>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
